--- a/xlsx/邪教_intext.xlsx
+++ b/xlsx/邪教_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
   <si>
     <t>邪教</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A2%AB%E6%94%BF%E5%BA%9C%E8%AA%8D%E5%AE%9A%E7%82%BA%E9%82%AA%E6%95%99%E7%9A%84%E5%9C%98%E9%AB%94%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>被政府認定為邪教的團體列表</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_邪教</t>
+    <t>被政府认定为邪教的团体列表</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_邪教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BB%B0</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>新興宗教</t>
+    <t>新兴宗教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%95%99</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E5%B4%87%E6%8B%9C</t>
   </si>
   <si>
-    <t>個人崇拜</t>
+    <t>个人崇拜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%AA%E5%85%B8%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>邪典電影</t>
+    <t>邪典电影</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Howard_P._Becker</t>
@@ -101,37 +101,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%AA%E6%83%A1</t>
   </si>
   <si>
-    <t>邪惡</t>
+    <t>邪恶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7%E7%9B%B8%E5%B0%8D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>道德相對主義</t>
+    <t>道德相对主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%AA%E6%83%A1%E5%8D%9A%E5%A3%AB</t>
   </si>
   <si>
-    <t>邪惡博士</t>
+    <t>邪恶博士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%95%99%E6%97%A8%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>原教旨主義</t>
+    <t>原教旨主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>世俗主義</t>
+    <t>世俗主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E7%AB%AF</t>
   </si>
   <si>
-    <t>異端</t>
+    <t>异端</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E6%8E%A7%E5%88%B6</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>反社會</t>
+    <t>反社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%A5%BF</t>
   </si>
   <si>
-    <t>尼祿</t>
+    <t>尼禄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%A3%AB%E5%9D%A6%E4%B8%81%E5%A4%A7%E5%B8%9D</t>
@@ -203,15 +203,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>國教</t>
+    <t>国教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%82%E7%AB%AF</t>
   </si>
   <si>
-    <t>异端</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E5%A5%A7%E5%A4%9A%E8%A5%BF%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>狄奧多西二世</t>
+    <t>狄奥多西二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E4%BA%BA</t>
@@ -269,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%8A%E6%96%AF%E9%8E%AE</t>
   </si>
   <si>
-    <t>瓊斯鎮</t>
+    <t>琼斯镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
@@ -293,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%A5%A7%C2%B7%E7%91%9E%E6%81%A9</t>
   </si>
   <si>
-    <t>里奧·瑞恩</t>
+    <t>里奥·瑞恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E9%80%8F%E7%A4%BE</t>
@@ -305,13 +302,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%A5%9E%E8%AB%96</t>
   </si>
   <si>
-    <t>無神論</t>
+    <t>无神论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國共產黨</t>
+    <t>中国共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%94%BF%E5%BA%9C%E8%AE%A4%E5%AE%9A%E7%9A%84%E9%82%AA%E6%95%99%E7%BB%84%E7%BB%87%E5%88%97%E8%A1%A8</t>
@@ -323,13 +320,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國大會</t>
+    <t>联合国大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%87%AA%E7%88%B1%E5%9B%BD%E6%95%99%E4%BC%9A</t>
@@ -347,15 +344,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%8B%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>地下教會</t>
+    <t>地下教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%87%AA%E6%84%9B%E5%9C%8B%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>三自愛國教會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E8%83%BD%E7%A5%9E</t>
   </si>
   <si>
@@ -365,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE</t>
@@ -395,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8%E4%B8%AD%E5%A4%AE%E5%A7%94%E5%93%A1%E6%9C%83%E7%B8%BD%E6%9B%B8%E8%A8%98</t>
   </si>
   <si>
-    <t>中國共產黨中央委員會總書記</t>
+    <t>中国共产党中央委员会总书记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E8%80%80%E9%82%A6</t>
@@ -407,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E6%BE%A4%E6%B0%91</t>
   </si>
   <si>
-    <t>江澤民</t>
+    <t>江泽民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E9%99%A2</t>
@@ -443,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E5%96%AC%E9%AB%98</t>
   </si>
   <si>
-    <t>大衛·喬高</t>
+    <t>大卫·乔高</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
@@ -455,13 +449,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%AB%8B%E8%8C%B2%E7%8D%8E</t>
   </si>
   <si>
-    <t>普立茲獎</t>
+    <t>普立兹奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>華爾街日報</t>
+    <t>华尔街日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A0%E5%BD%A6_(%E7%BE%8E%E5%9B%BD%E8%AE%B0%E8%80%85)</t>
@@ -473,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%8F%AF%E6%97%A9%E5%A0%B1</t>
   </si>
   <si>
-    <t>南華早報</t>
+    <t>南华早报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%89%B9%E8%B5%A6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際特赦組織</t>
+    <t>国际特赦组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8%E6%94%B9%E9%80%A0</t>
@@ -491,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%97%E8%85%A6</t>
   </si>
   <si>
-    <t>洗腦</t>
+    <t>洗脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%96%E7%BC%94%E5%8F%8D%E5%8A%A8%E4%BC%9A%E9%81%93%E9%97%A8</t>
@@ -503,19 +497,19 @@
     <t>https://zh.wikipedia.org/wiki/610%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
-    <t>610辦公室</t>
+    <t>610办公室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E4%BF%A0%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>武俠文化</t>
+    <t>武侠文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%9A%E5%A4%A9%E5%B1%A0%E9%BE%8D%E8%A8%98</t>
   </si>
   <si>
-    <t>倚天屠龍記</t>
+    <t>倚天屠龙记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%95%99</t>
@@ -533,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%97%8F</t>
   </si>
   <si>
-    <t>漢族</t>
+    <t>汉族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%9A%E9%81%93%E9%97%A8</t>
@@ -551,13 +545,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9A%97%E6%AE%BA</t>
   </si>
   <si>
-    <t>暗殺</t>
+    <t>暗杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E5%8B%95</t>
   </si>
   <si>
-    <t>暴動</t>
+    <t>暴动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8E%9F</t>
@@ -587,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E5%9F%8E%E6%B5%AA%E5%AD%90</t>
   </si>
   <si>
-    <t>邊城浪子</t>
+    <t>边城浪子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E6%88%92</t>
@@ -605,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E8%A8%B6%E6%AD%A2%E8%A7%80</t>
   </si>
   <si>
-    <t>摩訶止觀</t>
+    <t>摩诃止观</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%9E%E4%B8%A5%E7%BB%8F</t>
@@ -629,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%BF%83%E5%82%B3</t>
   </si>
   <si>
-    <t>李心傳</t>
+    <t>李心传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Dublin</t>
@@ -665,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%C2%B7%E8%AC%9D%E5%85%8B%E7%89%B9</t>
   </si>
   <si>
-    <t>丹尼·謝克特</t>
+    <t>丹尼·谢克特</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/James_R._Lewis_(scholar)</t>
@@ -1977,7 +1971,7 @@
         <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2003,10 +1997,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2032,10 +2026,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2061,10 +2055,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2090,10 +2084,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2119,10 +2113,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2148,10 +2142,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -2177,10 +2171,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2206,10 +2200,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>6</v>
@@ -2235,10 +2229,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -2264,10 +2258,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -2293,10 +2287,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
@@ -2322,10 +2316,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2351,10 +2345,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2380,10 +2374,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2409,10 +2403,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
@@ -2438,10 +2432,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2467,10 +2461,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>7</v>
@@ -2496,10 +2490,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2525,10 +2519,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2554,10 +2548,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2583,10 +2577,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2612,10 +2606,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2641,10 +2635,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2670,10 +2664,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2699,10 +2693,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>5</v>
@@ -2728,10 +2722,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>4</v>
@@ -2757,10 +2751,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>9</v>
@@ -2786,10 +2780,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>20</v>
@@ -2815,10 +2809,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2844,10 +2838,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -2873,10 +2867,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2902,10 +2896,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2931,10 +2925,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -2960,10 +2954,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>7</v>
@@ -2989,10 +2983,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3018,10 +3012,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>5</v>
@@ -3047,10 +3041,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3076,10 +3070,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3105,10 +3099,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3134,10 +3128,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3163,10 +3157,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3192,10 +3186,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3221,10 +3215,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3250,10 +3244,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -3279,10 +3273,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3308,10 +3302,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3337,10 +3331,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3366,10 +3360,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3395,10 +3389,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3424,10 +3418,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3453,10 +3447,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3482,10 +3476,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3511,10 +3505,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3540,10 +3534,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3569,10 +3563,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -3598,10 +3592,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3627,10 +3621,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3656,10 +3650,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3685,10 +3679,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3714,10 +3708,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3743,10 +3737,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3772,10 +3766,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3801,10 +3795,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3830,10 +3824,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3859,10 +3853,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3888,10 +3882,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3917,10 +3911,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3946,10 +3940,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3975,10 +3969,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4004,10 +3998,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4033,10 +4027,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4062,10 +4056,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4091,10 +4085,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4120,10 +4114,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4149,10 +4143,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4178,10 +4172,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F108" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4207,10 +4201,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4236,10 +4230,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4265,10 +4259,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4294,10 +4288,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4323,10 +4317,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4352,10 +4346,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4381,10 +4375,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>98</v>
+      </c>
+      <c r="F115" t="s">
         <v>99</v>
-      </c>
-      <c r="F115" t="s">
-        <v>100</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4410,10 +4404,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F116" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G116" t="n">
         <v>4</v>
@@ -4439,10 +4433,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -4468,10 +4462,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>8</v>
